--- a/Data/Comparisons.xlsx
+++ b/Data/Comparisons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\hypothesis-testing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6BD860-C9A6-43FA-B1DE-0A5347AD2F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE2681D-2E5E-4C48-815B-45EE022B5618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1238,7 +1238,7 @@
   <dimension ref="A1:KA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
